--- a/App/Logs/Log.xlsx
+++ b/App/Logs/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Method</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>2023-05-09T21:31:01.8663404+03:00</t>
+  </si>
+  <si>
+    <t>Евгений Онегин</t>
+  </si>
+  <si>
+    <t>19.04.2023</t>
+  </si>
+  <si>
+    <t>2023-05-10T20:41:58.9529276+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T20:42:04.3265760+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T20:45:56.2548543+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T20:48:26.3890020+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T20:48:34.0543669+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T21:01:52.8476378+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T21:14:23.1200019+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T21:14:29.4988232+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T21:22:02.5265233+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-10T21:23:34.4631900+03:00</t>
   </si>
 </sst>
 </file>
@@ -434,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -485,8 +521,12 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -508,8 +548,12 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -531,8 +575,12 @@
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,8 +602,12 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -577,8 +629,12 @@
       <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -600,8 +656,12 @@
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -623,6 +683,280 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>200</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>150</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>200</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/Logs/Log.xlsx
+++ b/App/Logs/Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>Method</t>
   </si>
@@ -138,6 +138,54 @@
   </si>
   <si>
     <t>2023-05-10T21:23:34.4631900+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-14T22:39:04.7894227+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-14T22:39:06.4012785+03:00</t>
+  </si>
+  <si>
+    <t>Шекспировский фестиваль</t>
+  </si>
+  <si>
+    <t>15.05.2023</t>
+  </si>
+  <si>
+    <t>2023-05-14T22:39:07.9772612+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-14T22:39:09.6411269+03:00</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:38:24.4449917+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:38:27.0047492+03:00</t>
+  </si>
+  <si>
+    <t>11.05.2023</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:38:29.7568873+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:38:31.9569572+03:00</t>
+  </si>
+  <si>
+    <t>test_user</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:39:34.1170232+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:39:36.3400335+03:00</t>
+  </si>
+  <si>
+    <t>2023-05-23T20:39:38.6044503+03:00</t>
   </si>
 </sst>
 </file>
@@ -470,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -524,9 +572,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,9 +598,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,9 +624,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -605,9 +650,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -632,9 +676,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -659,9 +702,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -686,9 +728,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,9 +754,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,9 +780,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -767,9 +806,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -794,9 +832,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,9 +858,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -848,9 +884,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -875,9 +910,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -902,9 +936,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -929,9 +962,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -956,7 +988,292 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>310</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>310</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>500</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>500</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>300</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>200</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1">
+        <v>400</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>300</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
